--- a/datos con adapt/Medicion 20180418 1938 Ag3.xlsx
+++ b/datos con adapt/Medicion 20180418 1938 Ag3.xlsx
@@ -35,11 +35,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -55,6 +56,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,6 +223,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2944,17 +2951,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="46480460"/>
-        <c:axId val="34891261"/>
+        <c:axId val="77975133"/>
+        <c:axId val="79503020"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46480460"/>
+        <c:axId val="77975133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2975,12 +2982,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34891261"/>
+        <c:crossAx val="79503020"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34891261"/>
+        <c:axId val="79503020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3002,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3016,7 +3023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46480460"/>
+        <c:crossAx val="77975133"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3057,16 +3064,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3074,8 +3081,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1503000" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="4147920" y="801000"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3093,10 +3100,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3145,6 +3152,10 @@
       <c r="B5" s="0" t="n">
         <v>0.059076</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">MAX(B2:B451)/MIN(B2:B451)</f>
+        <v>222.93867120954</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
